--- a/uploads/Пример базы.xlsx
+++ b/uploads/Пример базы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kirill\Programming\Web\CoinBot\Server\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrFlyingChip\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="159">
   <si>
     <t>Tаблица 1</t>
   </si>
@@ -150,6 +150,9 @@
     <t>CVC</t>
   </si>
   <si>
+    <t xml:space="preserve">MCO </t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -171,12 +174,18 @@
     <t>CLOAK</t>
   </si>
   <si>
+    <t xml:space="preserve">ZEC </t>
+  </si>
+  <si>
     <t>GUP</t>
   </si>
   <si>
     <t>DTB</t>
   </si>
   <si>
+    <t xml:space="preserve">LBC </t>
+  </si>
+  <si>
     <t>AMP</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
     <t>ICX</t>
   </si>
   <si>
+    <t xml:space="preserve">CFI </t>
+  </si>
+  <si>
     <t>KNC</t>
   </si>
   <si>
@@ -483,7 +495,7 @@
     <t>28.02.2018</t>
   </si>
   <si>
-    <t>CFI</t>
+    <t>0,00063</t>
   </si>
 </sst>
 </file>
@@ -647,7 +659,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -676,9 +688,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1846,28 +1855,28 @@
   </sheetPr>
   <dimension ref="A1:IV143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="256" width="8.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1878,7 +1887,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -1889,7 +1898,7 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
@@ -1900,7 +1909,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -1911,7 +1920,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -1922,7 +1931,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -1933,7 +1942,7 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>7</v>
@@ -1944,7 +1953,7 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -1966,7 +1975,7 @@
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>10</v>
@@ -1977,7 +1986,7 @@
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1999,7 +2008,7 @@
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
@@ -2010,7 +2019,7 @@
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
@@ -2021,18 +2030,18 @@
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
@@ -2054,18 +2063,18 @@
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="9">
-        <v>6.3000000000000003E-4</v>
+      <c r="C19" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>18</v>
@@ -2076,7 +2085,7 @@
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>5</v>
@@ -2087,7 +2096,7 @@
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>19</v>
@@ -2098,7 +2107,7 @@
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>20</v>
@@ -2109,7 +2118,7 @@
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>21</v>
@@ -2120,7 +2129,7 @@
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>22</v>
@@ -2131,7 +2140,7 @@
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>23</v>
@@ -2142,7 +2151,7 @@
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>24</v>
@@ -2153,7 +2162,7 @@
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>25</v>
@@ -2164,7 +2173,7 @@
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -2175,7 +2184,7 @@
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>26</v>
@@ -2186,7 +2195,7 @@
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>27</v>
@@ -2197,7 +2206,7 @@
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>17</v>
@@ -2208,7 +2217,7 @@
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>28</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>29</v>
@@ -2230,7 +2239,7 @@
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>30</v>
@@ -2241,7 +2250,7 @@
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>31</v>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>32</v>
@@ -2263,7 +2272,7 @@
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>33</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>34</v>
@@ -2285,7 +2294,7 @@
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>35</v>
@@ -2296,7 +2305,7 @@
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>36</v>
@@ -2307,7 +2316,7 @@
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>37</v>
@@ -2318,7 +2327,7 @@
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>38</v>
@@ -2329,7 +2338,7 @@
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>39</v>
@@ -2340,7 +2349,7 @@
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>40</v>
@@ -2351,7 +2360,7 @@
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>41</v>
@@ -2362,7 +2371,7 @@
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>42</v>
@@ -2373,10 +2382,10 @@
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C48" s="9">
         <v>1.0300000000000001E-3</v>
@@ -2384,7 +2393,7 @@
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
@@ -2395,10 +2404,10 @@
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="9">
         <v>1.9E-6</v>
@@ -2406,7 +2415,7 @@
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>25</v>
@@ -2417,7 +2426,7 @@
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>21</v>
@@ -2428,10 +2437,10 @@
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="9">
         <v>2.4500000000000001E-2</v>
@@ -2439,10 +2448,10 @@
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" s="9">
         <v>2.5999999999999998E-5</v>
@@ -2450,10 +2459,10 @@
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="9">
         <v>7.3999999999999996E-2</v>
@@ -2461,10 +2470,10 @@
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" s="9">
         <v>5.1000000000000004E-4</v>
@@ -2472,10 +2481,10 @@
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" s="9">
         <v>5.1E-5</v>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>3</v>
@@ -2494,10 +2503,10 @@
     </row>
     <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C59" s="9">
         <v>1.2099999999999999E-3</v>
@@ -2505,10 +2514,10 @@
     </row>
     <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" s="9">
         <v>2.2000000000000001E-3</v>
@@ -2516,10 +2525,10 @@
     </row>
     <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C61" s="9">
         <v>3.6999999999999998E-2</v>
@@ -2527,10 +2536,10 @@
     </row>
     <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C62" s="9">
         <v>1.0000000000000001E-5</v>
@@ -2538,7 +2547,7 @@
     </row>
     <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>27</v>
@@ -2549,10 +2558,10 @@
     </row>
     <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" s="9">
         <v>1.1E-4</v>
@@ -2560,10 +2569,10 @@
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" s="9">
         <v>3.0000000000000001E-5</v>
@@ -2571,10 +2580,10 @@
     </row>
     <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C66" s="9">
         <v>7.6000000000000004E-5</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="9">
         <v>6.8999999999999997E-5</v>
@@ -2593,10 +2602,10 @@
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="9">
         <v>6.0000000000000002E-5</v>
@@ -2604,10 +2613,10 @@
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C69" s="9">
         <v>1.5E-5</v>
@@ -2615,7 +2624,7 @@
     </row>
     <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>34</v>
@@ -2626,10 +2635,10 @@
     </row>
     <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C71" s="9">
         <v>2.3E-3</v>
@@ -2637,10 +2646,10 @@
     </row>
     <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="9">
         <v>3.1999999999999999E-5</v>
@@ -2648,10 +2657,10 @@
     </row>
     <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C73" s="9">
         <v>4.2000000000000002E-4</v>
@@ -2659,7 +2668,7 @@
     </row>
     <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
@@ -2670,10 +2679,10 @@
     </row>
     <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C75" s="9">
         <v>7.9999999999999996E-6</v>
@@ -2681,10 +2690,10 @@
     </row>
     <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C76" s="9">
         <v>2.2000000000000001E-4</v>
@@ -2692,10 +2701,10 @@
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C77" s="9">
         <v>2.1000000000000001E-4</v>
@@ -2703,7 +2712,7 @@
     </row>
     <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>14</v>
@@ -2714,10 +2723,10 @@
     </row>
     <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C79" s="9">
         <v>2.5899999999999999E-3</v>
@@ -2725,10 +2734,10 @@
     </row>
     <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" s="9">
         <v>4.1999999999999996E-6</v>
@@ -2736,10 +2745,10 @@
     </row>
     <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C81" s="9">
         <v>1.5499999999999999E-3</v>
@@ -2747,7 +2756,7 @@
     </row>
     <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>22</v>
@@ -2758,7 +2767,7 @@
     </row>
     <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>6</v>
@@ -2769,10 +2778,10 @@
     </row>
     <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C84" s="9">
         <v>4.3999999999999999E-5</v>
@@ -2780,10 +2789,10 @@
     </row>
     <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C85" s="9">
         <v>8.0000000000000007E-5</v>
@@ -2791,10 +2800,10 @@
     </row>
     <row r="86" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" s="9">
         <v>5.1999999999999995E-4</v>
@@ -2802,10 +2811,10 @@
     </row>
     <row r="87" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C87" s="9">
         <v>2.6999999999999999E-5</v>
@@ -2813,10 +2822,10 @@
     </row>
     <row r="88" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C88" s="9">
         <v>6.2E-4</v>
@@ -2824,10 +2833,10 @@
     </row>
     <row r="89" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C89" s="9">
         <v>5.1999999999999997E-5</v>
@@ -2835,10 +2844,10 @@
     </row>
     <row r="90" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C90" s="9">
         <v>4.6999999999999999E-6</v>
@@ -2846,10 +2855,10 @@
     </row>
     <row r="91" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C91" s="9">
         <v>1.1999999999999999E-3</v>
@@ -2857,10 +2866,10 @@
     </row>
     <row r="92" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C92" s="9">
         <v>5.1E-5</v>
@@ -2868,10 +2877,10 @@
     </row>
     <row r="93" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C93" s="9">
         <v>3.3000000000000002E-6</v>
@@ -2879,10 +2888,10 @@
     </row>
     <row r="94" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C94" s="9">
         <v>2.0000000000000002E-5</v>
@@ -2890,10 +2899,10 @@
     </row>
     <row r="95" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C95" s="9">
         <v>4.6E-5</v>
@@ -2901,7 +2910,7 @@
     </row>
     <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>27</v>
@@ -2912,10 +2921,10 @@
     </row>
     <row r="97" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C97" s="9">
         <v>2.3000000000000001E-4</v>
@@ -2923,10 +2932,10 @@
     </row>
     <row r="98" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C98" s="9">
         <v>8.3999999999999995E-5</v>
@@ -2934,10 +2943,10 @@
     </row>
     <row r="99" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C99" s="9">
         <v>3.6999999999999999E-4</v>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="100" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>35</v>
@@ -2956,10 +2965,10 @@
     </row>
     <row r="101" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C101" s="9">
         <v>1.6000000000000001E-4</v>
@@ -2967,7 +2976,7 @@
     </row>
     <row r="102" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>3</v>
@@ -2978,10 +2987,10 @@
     </row>
     <row r="103" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C103" s="9">
         <v>4.6000000000000001E-4</v>
@@ -2989,7 +2998,7 @@
     </row>
     <row r="104" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>1</v>
@@ -3000,10 +3009,10 @@
     </row>
     <row r="105" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C105" s="9">
         <v>2.5000000000000001E-4</v>
@@ -3011,10 +3020,10 @@
     </row>
     <row r="106" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C106" s="9">
         <v>6.0999999999999999E-5</v>
@@ -3022,10 +3031,10 @@
     </row>
     <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C107" s="9">
         <v>1.4E-5</v>
@@ -3033,10 +3042,10 @@
     </row>
     <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C108" s="9">
         <v>8.0000000000000004E-4</v>
@@ -3044,10 +3053,10 @@
     </row>
     <row r="109" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C109" s="9">
         <v>1.0000000000000001E-5</v>
@@ -3055,7 +3064,7 @@
     </row>
     <row r="110" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>39</v>
@@ -3066,7 +3075,7 @@
     </row>
     <row r="111" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>13</v>
@@ -3077,10 +3086,10 @@
     </row>
     <row r="112" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C112" s="9">
         <v>1.7000000000000001E-4</v>
@@ -3088,10 +3097,10 @@
     </row>
     <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C113" s="9">
         <v>2.5999999999999999E-3</v>
@@ -3099,10 +3108,10 @@
     </row>
     <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C114" s="9">
         <v>4.2000000000000002E-4</v>
@@ -3110,10 +3119,10 @@
     </row>
     <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C115" s="9">
         <v>2.3500000000000001E-3</v>
@@ -3121,7 +3130,7 @@
     </row>
     <row r="116" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>11</v>
@@ -3132,10 +3141,10 @@
     </row>
     <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C117" s="9">
         <v>835</v>
@@ -3143,7 +3152,7 @@
     </row>
     <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>23</v>
@@ -3154,10 +3163,10 @@
     </row>
     <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C119" s="9">
         <v>4.2000000000000002E-4</v>
@@ -3165,10 +3174,10 @@
     </row>
     <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C120" s="9">
         <v>1.6999999999999999E-3</v>
@@ -3176,10 +3185,10 @@
     </row>
     <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C121" s="9">
         <v>2.7999999999999998E-4</v>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>11</v>
@@ -3198,10 +3207,10 @@
     </row>
     <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C123" s="9">
         <v>1.3799999999999999E-3</v>
@@ -3209,10 +3218,10 @@
     </row>
     <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C124" s="9">
         <v>1.35E-4</v>
@@ -3220,10 +3229,10 @@
     </row>
     <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C125" s="9">
         <v>5.0000000000000002E-5</v>
@@ -3231,7 +3240,7 @@
     </row>
     <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>39</v>
@@ -3242,10 +3251,10 @@
     </row>
     <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C127" s="9">
         <v>1.48E-3</v>
@@ -3253,10 +3262,10 @@
     </row>
     <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C128" s="9">
         <v>1.0000000000000001E-5</v>
@@ -3264,10 +3273,10 @@
     </row>
     <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C129" s="9">
         <v>3.1499999999999999E-6</v>
@@ -3275,7 +3284,7 @@
     </row>
     <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>29</v>
@@ -3286,10 +3295,10 @@
     </row>
     <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C131" s="9">
         <v>4.1999999999999998E-5</v>
@@ -3297,7 +3306,7 @@
     </row>
     <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>41</v>
@@ -3308,10 +3317,10 @@
     </row>
     <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C133" s="9">
         <v>2.3E-5</v>
@@ -3319,7 +3328,7 @@
     </row>
     <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>17</v>
@@ -3330,7 +3339,7 @@
     </row>
     <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>12</v>
@@ -3341,7 +3350,7 @@
     </row>
     <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>27</v>
@@ -3352,10 +3361,10 @@
     </row>
     <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C137" s="9">
         <v>1.1E-4</v>
@@ -3363,10 +3372,10 @@
     </row>
     <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C138" s="9">
         <v>3.2000000000000002E-3</v>
@@ -3374,7 +3383,7 @@
     </row>
     <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>13</v>
@@ -3385,10 +3394,10 @@
     </row>
     <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C140" s="9">
         <v>4.1499999999999999E-5</v>
@@ -3396,10 +3405,10 @@
     </row>
     <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C141" s="9">
         <v>1.5E-5</v>
@@ -3407,10 +3416,10 @@
     </row>
     <row r="142" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C142" s="9">
         <v>2.02E-5</v>
@@ -3418,10 +3427,10 @@
     </row>
     <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C143" s="9">
         <v>3.1499999999999999E-6</v>
